--- a/Data Files/test/Auto_Type1.xlsx
+++ b/Data Files/test/Auto_Type1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t xml:space="preserve">issueNumber</t>
   </si>
@@ -242,81 +242,6 @@
   </si>
   <si>
     <t xml:space="preserve">streetName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U0105556078229000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC10003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0105556078229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1721000011382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kittisak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangkok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test.gamekittisak@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">บ้านนา</t>
   </si>
 </sst>
 </file>
@@ -408,7 +333,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -429,22 +354,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BW1000"/>
+  <dimension ref="A1:BW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BC12" activeCellId="0" sqref="BC12"/>
+      <selection pane="topLeft" activeCell="AZ2" activeCellId="0" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.34"/>
@@ -460,7 +385,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="17.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="19.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="19.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="20.66"/>
@@ -469,12 +394,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="35" style="1" width="6.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="4.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="40" style="1" width="7.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="16.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="17.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="12.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="19"/>
@@ -503,7 +428,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="1" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="1" width="9.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="76" style="1" width="14.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="76" style="1" width="14.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,176 +658,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1882,7 +1638,7 @@
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data Files/test/Auto_Type1.xlsx
+++ b/Data Files/test/Auto_Type1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A344D464-CBD7-4D23-B50B-768ABE089AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8EC878-2575-4D12-9607-73319DD24432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -602,10 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BW999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
